--- a/SourceCode/2023/Oct2023/Basics/Nihar/Task_21/City_Tempdata.xlsx
+++ b/SourceCode/2023/Oct2023/Basics/Nihar/Task_21/City_Tempdata.xlsx
@@ -8,7 +8,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>City_Name</x:t>
   </x:si>
@@ -32,16 +31,28 @@
     <x:t>Hyderabad Temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>2476°C°C°F    °F</x:t>
+  </x:si>
+  <x:si>
     <x:t>Delhi Temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>2374°C°C°F    °F</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mumbai Temperature</x:t>
   </x:si>
   <x:si>
+    <x:t>2883°C°C°F    °F</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pune Temperature</x:t>
   </x:si>
   <x:si>
     <x:t>Goa Temperature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2780°C°C°F    °F</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -374,15 +385,16 @@
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+      <x:selection activeCell="P20" sqref="P20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="21" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13.554688" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -390,60 +402,44 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="B7" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="B8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="B9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="B11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -453,80 +449,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="B6" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="B7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="B8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="B9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="B10" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>